--- a/documentation/CalendarEvents.xlsx
+++ b/documentation/CalendarEvents.xlsx
@@ -5,14 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acer2\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="January" sheetId="2" r:id="rId2"/>
+    <sheet name="February" sheetId="4" r:id="rId3"/>
+    <sheet name="March" sheetId="5" r:id="rId4"/>
+    <sheet name="April" sheetId="6" r:id="rId5"/>
+    <sheet name="May" sheetId="7" r:id="rId6"/>
+    <sheet name="June_x000a_" sheetId="8" r:id="rId7"/>
+    <sheet name="July" sheetId="9" r:id="rId8"/>
+    <sheet name="August" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="154">
   <si>
     <t>NAME OF EVENTS</t>
   </si>
@@ -177,13 +185,342 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>DAILY READINGS:</t>
+  </si>
+  <si>
+    <t>LECT. #</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>SAINT/FEAST</t>
+  </si>
+  <si>
+    <t>RANK</t>
+  </si>
+  <si>
+    <t>Solemnity</t>
+  </si>
+  <si>
+    <t>[see the Proper of Seasons, no. 18]</t>
+  </si>
+  <si>
+    <t>The Most Holy Name of Jesus</t>
+  </si>
+  <si>
+    <t>Votive Mass of the Holy Name</t>
+  </si>
+  <si>
+    <t>St. Elizabeth Ann Seton, religious</t>
+  </si>
+  <si>
+    <t>Common of Holy Men and Women: For Religious</t>
+  </si>
+  <si>
+    <t>St. John Neumann, bishop</t>
+  </si>
+  <si>
+    <t>Common of Pastors</t>
+  </si>
+  <si>
+    <t>St. André Bessette, religious</t>
+  </si>
+  <si>
+    <t>USA Opt.</t>
+  </si>
+  <si>
+    <t>Common of Holy Men and Women: For Religious</t>
+  </si>
+  <si>
+    <t>St. Raymond of Peñafort, priest</t>
+  </si>
+  <si>
+    <t>St. Hilary, bishop and doctor of the Church</t>
+  </si>
+  <si>
+    <t>St. Anthony, abbot</t>
+  </si>
+  <si>
+    <t>St. Fabian, pope and martyr</t>
+  </si>
+  <si>
+    <t>St. Sebastian, martyr</t>
+  </si>
+  <si>
+    <t>Common of Martyrs</t>
+  </si>
+  <si>
+    <t>St. Agnes, virgin and martyr</t>
+  </si>
+  <si>
+    <t>Common of Virgins</t>
+  </si>
+  <si>
+    <t>St. Vincent, deacon and martyr</t>
+  </si>
+  <si>
+    <t>St. Marianne Cope, virgin</t>
+  </si>
+  <si>
+    <t>The Conversion of St. Paul, Apostle</t>
+  </si>
+  <si>
+    <t>Feast</t>
+  </si>
+  <si>
+    <t>PROPER</t>
+  </si>
+  <si>
+    <t>Sts. Timothy and Titus, bishops</t>
+  </si>
+  <si>
+    <t>St. Angela Merici, virgin</t>
+  </si>
+  <si>
+    <t>Common of Holy Men and Women: For Teachers</t>
+  </si>
+  <si>
+    <t>St. John Bosco, priest</t>
+  </si>
+  <si>
+    <t>Octave of Christmas: Solemnity of the
+Blessed Virgin Mary, Mother of God</t>
+  </si>
+  <si>
+    <t>Sts. Basil the Great &amp; Gregory Nazianzen,
+bishops and doctors of the Church</t>
+  </si>
+  <si>
+    <t>Day of Prayer for the Legal Protection of Unborn
+Children (moved to 1/23 if 1/22 is a Sunday)</t>
+  </si>
+  <si>
+    <t>St. Francis de Sales,
+bishop and doctor of the Church</t>
+  </si>
+  <si>
+    <t>St. Thomas Aquinas,
+priest and doctor of the Church</t>
+  </si>
+  <si>
+    <t>Feb. 2</t>
+  </si>
+  <si>
+    <t>Feb. 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solemnity </t>
+  </si>
+  <si>
+    <t>Memorial</t>
+  </si>
+  <si>
+    <t>USA Memorial</t>
+  </si>
+  <si>
+    <t>COMMONS / PROPER</t>
+  </si>
+  <si>
+    <t>Common of Pastors, or 
+Common of Doctors of the Church</t>
+  </si>
+  <si>
+    <t>Common of Martyrs, or 
+Common of Pastors: For a Pope</t>
+  </si>
+  <si>
+    <t>Common of Martyrs, or 
+Common of Virgins</t>
+  </si>
+  <si>
+    <t>Common of Pastors, except PROPER 1st Reading:</t>
+  </si>
+  <si>
+    <t>Common of Virgins, or 
+Common of Holy Men and Women: For Teachers</t>
+  </si>
+  <si>
+    <t>Common of Doctors of the Church, or 
+Common of Pastors</t>
+  </si>
+  <si>
+    <t>Common of Pastors, or 
+Common of Holy Men and Women: For Teachers</t>
+  </si>
+  <si>
+    <t>Feb. 5</t>
+  </si>
+  <si>
+    <t>The Presentation of the Lord</t>
+  </si>
+  <si>
+    <t>St. Blaise, bishop and martyr</t>
+  </si>
+  <si>
+    <t>St. Ansgar, bishop</t>
+  </si>
+  <si>
+    <t>St. Agatha, virgin and martyr</t>
+  </si>
+  <si>
+    <t>Feb. 6</t>
+  </si>
+  <si>
+    <t>Feb. 8</t>
+  </si>
+  <si>
+    <t>St. Paul Miki, priest and martyr,
+and Companions, martyrs</t>
+  </si>
+  <si>
+    <t>St. Jerome Emiliani, priest</t>
+  </si>
+  <si>
+    <t>St. Josephine Bakhita, virgin</t>
+  </si>
+  <si>
+    <t>Feb. 10</t>
+  </si>
+  <si>
+    <t>Feb. 11</t>
+  </si>
+  <si>
+    <t>St. Scholastica, virgin</t>
+  </si>
+  <si>
+    <t>Our Lady of Lourdes</t>
+  </si>
+  <si>
+    <t>Feb. 14</t>
+  </si>
+  <si>
+    <t>Feb. 17</t>
+  </si>
+  <si>
+    <t>Sts. Cyril, monk,and Methodius, bishop</t>
+  </si>
+  <si>
+    <t>Seven Founders of the Order of Servites</t>
+  </si>
+  <si>
+    <t>Feb. 21</t>
+  </si>
+  <si>
+    <t>Feb. 22</t>
+  </si>
+  <si>
+    <t>Feb. 23</t>
+  </si>
+  <si>
+    <t>St. Peter Damian,
+bishop and doctor of the Church</t>
+  </si>
+  <si>
+    <t>The Chair of St. Peter, Apostle</t>
+  </si>
+  <si>
+    <t>St. Polycarp, bishop and martyr</t>
+  </si>
+  <si>
+    <t>Common of Martyrs, or 
+Common of Pastors</t>
+  </si>
+  <si>
+    <t>Common of Pastors: For Missionaries</t>
+  </si>
+  <si>
+    <t>Common of Virgins, or 
+Common of Holy Men and Women: For Religious</t>
+  </si>
+  <si>
+    <t>Common of the Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>Common of Pastors: For Missionaries, or 
+Common of Holy Men and Women</t>
+  </si>
+  <si>
+    <t>Common of Doctors of the Church, or 
+Common of Pastors, or 
+Common of Holy Men and Women: For Religious</t>
+  </si>
+  <si>
+    <t>Mar. 3</t>
+  </si>
+  <si>
+    <t>Mar. 4</t>
+  </si>
+  <si>
+    <t>Mar. 7</t>
+  </si>
+  <si>
+    <t>Mar. 8</t>
+  </si>
+  <si>
+    <t>Mar. 9</t>
+  </si>
+  <si>
+    <t>Mar.17</t>
+  </si>
+  <si>
+    <t>Mar. 18</t>
+  </si>
+  <si>
+    <t>Mar .19</t>
+  </si>
+  <si>
+    <t>Mar. 23</t>
+  </si>
+  <si>
+    <t>Mar. 25</t>
+  </si>
+  <si>
+    <t>St. Katharine Drexel, virgin</t>
+  </si>
+  <si>
+    <t>St. Casimir</t>
+  </si>
+  <si>
+    <t>Sts. Perpetua and Felicity, martyrs</t>
+  </si>
+  <si>
+    <t>St. John of God, religious</t>
+  </si>
+  <si>
+    <t>St. Frances of Rome, religious</t>
+  </si>
+  <si>
+    <t>St. Patrick, bishop</t>
+  </si>
+  <si>
+    <t>St. Cyril of Jerusalem,
+bishop and doctor of the Church</t>
+  </si>
+  <si>
+    <t>St. Joseph, husband of the Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>St. Turibius of Mongrovejo, bishop</t>
+  </si>
+  <si>
+    <t>The Annunciation of the Lord</t>
+  </si>
+  <si>
+    <t>Common of Holy Men and Women</t>
+  </si>
+  <si>
+    <t>Common of Holy Men and Women: For Religious;
+for Those Who Work for the Underprivileged</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,8 +551,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +584,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -267,6 +629,14 @@
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,8 +919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -887,4 +1257,805 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="38" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>36892</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>37257</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>37622</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>37987</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>38353</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>38718</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>39083</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>41275</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>43831</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>44562</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="7"/>
+      <c r="C16" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>44927</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>45292</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>45658</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>46023</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>46388</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>46753</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>11324</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D23" t="s">
+        <v>92</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11"/>
+      <c r="C5" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="11"/>
+      <c r="C9" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/CalendarEvents.xlsx
+++ b/documentation/CalendarEvents.xlsx
@@ -5,22 +5,25 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEV\documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SOFTDEVIT111_GRP_5-DONTDELETEHERE\apc-softdev-it111-05\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="January" sheetId="2" r:id="rId2"/>
-    <sheet name="February" sheetId="4" r:id="rId3"/>
-    <sheet name="March" sheetId="5" r:id="rId4"/>
-    <sheet name="April" sheetId="6" r:id="rId5"/>
-    <sheet name="May" sheetId="7" r:id="rId6"/>
-    <sheet name="June_x000a_" sheetId="8" r:id="rId7"/>
-    <sheet name="July" sheetId="9" r:id="rId8"/>
-    <sheet name="August" sheetId="10" r:id="rId9"/>
+    <sheet name="Movable Feasts" sheetId="1" r:id="rId1"/>
+    <sheet name="Solemnities" sheetId="11" r:id="rId2"/>
+    <sheet name="Memorials" sheetId="12" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="13" r:id="rId4"/>
+    <sheet name="January" sheetId="2" r:id="rId5"/>
+    <sheet name="February" sheetId="4" r:id="rId6"/>
+    <sheet name="March" sheetId="5" r:id="rId7"/>
+    <sheet name="April" sheetId="6" r:id="rId8"/>
+    <sheet name="May" sheetId="7" r:id="rId9"/>
+    <sheet name="June_x000a_" sheetId="8" r:id="rId10"/>
+    <sheet name="July" sheetId="9" r:id="rId11"/>
+    <sheet name="August" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="191">
   <si>
     <t>NAME OF EVENTS</t>
   </si>
@@ -43,9 +46,6 @@
     <t>POSSIBLE DATE</t>
   </si>
   <si>
-    <t>CATEGORY</t>
-  </si>
-  <si>
     <t>Ash Wednesday</t>
   </si>
   <si>
@@ -88,9 +88,6 @@
     <t>Sunday after Pentecost</t>
   </si>
   <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>Solemnity of the Most Holy Body and Blood of Christ</t>
   </si>
   <si>
@@ -151,18 +148,9 @@
     <t>Annunciation of the Lord</t>
   </si>
   <si>
-    <t>Nativity of John the Baptist</t>
-  </si>
-  <si>
-    <t>Sts. Peter and Paul</t>
-  </si>
-  <si>
     <t>Transfiguration of the Lord</t>
   </si>
   <si>
-    <t>Assumption of Mary</t>
-  </si>
-  <si>
     <t>Exaltation of the Cross</t>
   </si>
   <si>
@@ -172,19 +160,10 @@
     <t>Commemoration of All the Faithful Departed</t>
   </si>
   <si>
-    <t>Dedication of St. John Lateran Basilica</t>
-  </si>
-  <si>
-    <t>Immaculate Concepcion of BVM</t>
-  </si>
-  <si>
     <t>transferred to 12/9 if falling on a Sunday</t>
   </si>
   <si>
     <t xml:space="preserve">transferred if falling on a Sunday, transferred into a Monday but if falls during Holy Week or the Easter Octave, then it is transferred to Monday of the second week of Easter </t>
-  </si>
-  <si>
-    <t>S</t>
   </si>
   <si>
     <t>DAILY READINGS:</t>
@@ -514,13 +493,148 @@
   <si>
     <t>Common of Holy Men and Women: For Religious;
 for Those Who Work for the Underprivileged</t>
+  </si>
+  <si>
+    <t>The Nativity of St. John the Baptist (Vigil &amp; Day)</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Sts. Peter and Paul, Apostles (Vigil &amp; Day)</t>
+  </si>
+  <si>
+    <t>The Assumption of the Blessed Virgin Mary (Vigil &amp; Day)</t>
+  </si>
+  <si>
+    <t>choice of many readings recommended for Masses of the Dead</t>
+  </si>
+  <si>
+    <t>The Immaculate Concepcion of Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>* SEE THE SPECIAL LITURGICAL SEASONS according to the site</t>
+  </si>
+  <si>
+    <t>Dedication of the Lateran Basilica in Rome</t>
+  </si>
+  <si>
+    <t>*Four Feasts - with three proper readings; can also replace Sundays of Ordinary Time</t>
+  </si>
+  <si>
+    <t>Visitation of the Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>*Twenty Feasts - with two proper readings; omitted if they fall on Sunday</t>
+  </si>
+  <si>
+    <t>The Nativity of the Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>Our Lady of Guadalupe (Feast in USA)</t>
+  </si>
+  <si>
+    <t>St. Mark, evangelist</t>
+  </si>
+  <si>
+    <t>Sts. Philip and James , Apostles</t>
+  </si>
+  <si>
+    <t>St. Matthias, Apostle</t>
+  </si>
+  <si>
+    <t>St. Thomas, Apostle</t>
+  </si>
+  <si>
+    <t>St. James, Apsotle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Bartholomew, Apostle </t>
+  </si>
+  <si>
+    <t>St. Matthew, Apostle and evangelist</t>
+  </si>
+  <si>
+    <t>St. Luke, evangelist</t>
+  </si>
+  <si>
+    <t>Sts. Simon and Jude, Apostles</t>
+  </si>
+  <si>
+    <t>St. Andrew, Apostle</t>
+  </si>
+  <si>
+    <t>St. John, Apostle and evangelist</t>
+  </si>
+  <si>
+    <t>St. Lawrence, deacon and martyr</t>
+  </si>
+  <si>
+    <t>only post-NT individual</t>
+  </si>
+  <si>
+    <t>Sts. Michael, Gabriel and Raphael, archangels</t>
+  </si>
+  <si>
+    <t>St. Stephen, first martyr</t>
+  </si>
+  <si>
+    <t>The Holy Innocents, martyrs</t>
+  </si>
+  <si>
+    <t>St. Bambas, Apostle</t>
+  </si>
+  <si>
+    <t>1st Reading and Gospel</t>
+  </si>
+  <si>
+    <t>St. Mary Magdalene</t>
+  </si>
+  <si>
+    <t>Gospel</t>
+  </si>
+  <si>
+    <t>1st reading</t>
+  </si>
+  <si>
+    <t>St. Martha</t>
+  </si>
+  <si>
+    <t>Sts. Joachim and Anne, parents of Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>The Martyrdom of St. John the Baptist</t>
+  </si>
+  <si>
+    <t>Our Lady of Sorrows</t>
+  </si>
+  <si>
+    <t>The Guardian Angels</t>
+  </si>
+  <si>
+    <t>St. Ignatius of Antioch, bishop and martyr</t>
+  </si>
+  <si>
+    <t>*OPTIONAL MEMORIALS</t>
+  </si>
+  <si>
+    <t>St. Joseph the Worker</t>
+  </si>
+  <si>
+    <t>Saturday after 2nd Sunday after Pentecost</t>
+  </si>
+  <si>
+    <t>Immaculate Heart of Blessed Virgin Mary</t>
+  </si>
+  <si>
+    <t>Dedication of Basilicas of Sts. Peter and Paul</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -564,19 +678,21 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -596,6 +712,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -609,34 +737,76 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="17" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -917,349 +1087,889 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="24.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22" s="6">
-        <v>42037</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="6">
-        <v>42082</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" s="6">
-        <v>42088</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="6">
-        <v>42179</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="6">
-        <v>42184</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="6">
-        <v>42222</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="6">
-        <v>42231</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="6">
-        <v>42261</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="6">
-        <v>42309</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" s="6">
-        <v>42310</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="6">
-        <v>42317</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="6">
-        <v>42346</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>50</v>
-      </c>
+    </row>
+    <row r="20" spans="1:3" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="C20" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A32" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49:D49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="27.42578125" style="23" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="27.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="13" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="19">
+        <v>42029</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="F2" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="3" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="15">
+        <v>42037</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
+        <v>42057</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="4"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>42082</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>42088</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>42119</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19">
+        <v>42127</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
+        <v>42137</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="19">
+        <v>42155</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" s="26" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>42179</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <v>42184</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="19">
+        <v>42188</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="19">
+        <v>42210</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="15">
+        <v>42222</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>42231</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="19">
+        <v>42226</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21" t="s">
+        <v>171</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>42240</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="23"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="22"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="19">
+        <v>42255</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>42261</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="19">
+        <v>42268</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="19">
+        <v>42276</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="33" spans="1:5" s="26" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="22"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19">
+        <v>42295</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="13"/>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>42305</v>
+      </c>
+      <c r="B35" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="13"/>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>42309</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>42310</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="15">
+        <v>42317</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>42338</v>
+      </c>
+      <c r="B41" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="43" spans="1:5" s="26" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="22"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>42346</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>42350</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="21"/>
+      <c r="D45" s="21"/>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="19"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="19">
+        <v>42364</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="21"/>
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="19">
+        <v>42365</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="C48" s="21"/>
+      <c r="D48" s="21"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="19">
+        <v>42366</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="23" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>42030</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>42166</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>42207</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>42211</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>42214</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>42245</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>42262</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>42279</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>42294</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>42125</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B14" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>42326</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -1276,290 +1986,290 @@
   <sheetData>
     <row r="1" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="10">
+        <v>36892</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="10">
+        <v>37257</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10">
+        <v>37622</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="10">
+        <v>37987</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="D6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="8" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="10">
+        <v>38353</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D7" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11">
-        <v>36892</v>
-      </c>
-      <c r="C3" s="9" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10">
+        <v>38718</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>39083</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>41275</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>42736</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E11" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>43831</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="10">
+        <v>44197</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>44562</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="C16" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>44927</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>45292</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>45658</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>46023</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" t="s">
+        <v>84</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>46388</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
-        <v>37257</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="22" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>46753</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="11">
-        <v>37622</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="11">
-        <v>37987</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>11324</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E23" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="11">
-        <v>38353</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
-        <v>38718</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="11">
-        <v>39083</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>41275</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>42736</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
-        <v>43831</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="7"/>
-      <c r="C13" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B14" s="11">
-        <v>44197</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11">
-        <v>44562</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="7"/>
-      <c r="C16" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="11">
-        <v>44927</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B18" s="11">
-        <v>45292</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="11">
-        <v>45658</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
-        <v>46023</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D20" t="s">
-        <v>92</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11">
-        <v>46388</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B22" s="11">
-        <v>46753</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>92</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B23" s="11">
-        <v>11324</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1568,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -1585,195 +2295,195 @@
   <sheetData>
     <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="C6" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="10" t="s">
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="E8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="10"/>
+      <c r="C9" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="10" t="s">
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+      <c r="C10" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
+      <c r="C11" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="E11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="11"/>
-      <c r="C9" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="E9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
+      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B14" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C14" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="D15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="C16" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>118</v>
-      </c>
-      <c r="D12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1781,7 +2491,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1797,140 +2507,140 @@
   <sheetData>
     <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>94</v>
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="D10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="D12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +2648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1954,24 +2664,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>94</v>
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1979,7 +2689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -1995,67 +2705,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>94</v>
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/documentation/CalendarEvents.xlsx
+++ b/documentation/CalendarEvents.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="807" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Movable Feasts" sheetId="1" r:id="rId1"/>
     <sheet name="Solemnities" sheetId="11" r:id="rId2"/>
     <sheet name="Memorials" sheetId="12" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="13" r:id="rId4"/>
+    <sheet name="CONDITIONALS OF EVENTS" sheetId="13" r:id="rId4"/>
     <sheet name="January" sheetId="2" r:id="rId5"/>
-    <sheet name="February" sheetId="4" r:id="rId6"/>
-    <sheet name="March" sheetId="5" r:id="rId7"/>
+    <sheet name="March" sheetId="5" r:id="rId6"/>
+    <sheet name="February" sheetId="4" r:id="rId7"/>
     <sheet name="April" sheetId="6" r:id="rId8"/>
     <sheet name="May" sheetId="7" r:id="rId9"/>
     <sheet name="June_x000a_" sheetId="8" r:id="rId10"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
   <si>
     <t>NAME OF EVENTS</t>
   </si>
@@ -628,13 +628,102 @@
   </si>
   <si>
     <t>Dedication of Basilicas of Sts. Peter and Paul</t>
+  </si>
+  <si>
+    <t>ADVENT SUNDAY</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Advent begins with First Vespers (Evening Prayers 1) of the Sunday that falls on or closest to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>November 30</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and it ends before First Vespers (Evening Prayer 1) of Christmas</t>
+    </r>
+  </si>
+  <si>
+    <t>1st Sunday of Advent</t>
+  </si>
+  <si>
+    <t>2nd Sunday of Advent</t>
+  </si>
+  <si>
+    <t>3rd Sunday of Advent</t>
+  </si>
+  <si>
+    <t>4th Sunday of Advent</t>
+  </si>
+  <si>
+    <t>2013 : December 1
+2014 : November 30
+2015 : November 29
+2016 : November 27
+2017 : December 3</t>
+  </si>
+  <si>
+    <t>FIRST READING</t>
+  </si>
+  <si>
+    <t>GOSPEL</t>
+  </si>
+  <si>
+    <t>ALLELUIA VERSE</t>
+  </si>
+  <si>
+    <t>SECOND READING</t>
+  </si>
+  <si>
+    <t>RESPONSORIAL PSALM</t>
+  </si>
+  <si>
+    <t>CYCLE A</t>
+  </si>
+  <si>
+    <t>CYCLE B</t>
+  </si>
+  <si>
+    <t>CYCLE C</t>
+  </si>
+  <si>
+    <t>Jer. 33:14-16</t>
+  </si>
+  <si>
+    <t>Bar 5:1-9</t>
+  </si>
+  <si>
+    <t>Zeph 3:14-18a</t>
+  </si>
+  <si>
+    <t>Mic 5:1-4a</t>
+  </si>
+  <si>
+    <t>Ps. 25:4-5, 8-9, 10-14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -686,6 +775,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -725,7 +823,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -733,11 +831,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,6 +992,63 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1785,8 +2029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1959,12 +2203,197 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="27.140625" style="28" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="29" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="29" customWidth="1"/>
+    <col min="4" max="4" width="17" style="29" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="12" style="29" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="29" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" style="29" customWidth="1"/>
+    <col min="9" max="9" width="17" style="29" customWidth="1"/>
+    <col min="10" max="10" width="13.5703125" style="29" customWidth="1"/>
+    <col min="11" max="11" width="12" style="29" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" style="29" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="29" customWidth="1"/>
+    <col min="14" max="14" width="17" style="29" customWidth="1"/>
+    <col min="15" max="15" width="13.5703125" style="29" customWidth="1"/>
+    <col min="16" max="16" width="12" style="29" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" style="29" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="29" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" style="29" customWidth="1"/>
+    <col min="20" max="20" width="18.28515625" style="29" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="43" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="43" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="43" t="s">
+        <v>205</v>
+      </c>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45"/>
+      <c r="R1" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="S1" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="I2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="L2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="M2" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="N2" s="27" t="s">
+        <v>202</v>
+      </c>
+      <c r="O2" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="P2" s="27" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q2" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+    </row>
+    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="S3" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" s="30" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="35"/>
+      <c r="B4" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" s="31"/>
+      <c r="T5" s="31"/>
+    </row>
+    <row r="6" spans="1:20" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="36"/>
+      <c r="B6" s="29" t="s">
+        <v>196</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="31"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="S7" s="37"/>
+      <c r="T7" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="S3:S6"/>
+    <mergeCell ref="T3:T6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="S1:S2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1974,7 +2403,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2279,6 +2708,163 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="B3" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B6" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -2484,163 +3070,6 @@
       </c>
       <c r="E16" s="8" t="s">
         <v>118</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/CalendarEvents.xlsx
+++ b/documentation/CalendarEvents.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="807" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="807" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Movable Feasts" sheetId="1" r:id="rId1"/>
     <sheet name="Solemnities" sheetId="11" r:id="rId2"/>
     <sheet name="Memorials" sheetId="12" r:id="rId3"/>
-    <sheet name="CONDITIONALS OF EVENTS" sheetId="13" r:id="rId4"/>
-    <sheet name="January" sheetId="2" r:id="rId5"/>
-    <sheet name="March" sheetId="5" r:id="rId6"/>
-    <sheet name="February" sheetId="4" r:id="rId7"/>
-    <sheet name="April" sheetId="6" r:id="rId8"/>
-    <sheet name="May" sheetId="7" r:id="rId9"/>
-    <sheet name="June_x000a_" sheetId="8" r:id="rId10"/>
-    <sheet name="July" sheetId="9" r:id="rId11"/>
-    <sheet name="August" sheetId="10" r:id="rId12"/>
+    <sheet name="Octave of Easter" sheetId="14" r:id="rId4"/>
+    <sheet name="CONDITIONALS OF EVENTS" sheetId="13" r:id="rId5"/>
+    <sheet name="January" sheetId="2" r:id="rId6"/>
+    <sheet name="March" sheetId="5" r:id="rId7"/>
+    <sheet name="February" sheetId="4" r:id="rId8"/>
+    <sheet name="April" sheetId="6" r:id="rId9"/>
+    <sheet name="May" sheetId="7" r:id="rId10"/>
+    <sheet name="June_x000a_" sheetId="8" r:id="rId11"/>
+    <sheet name="July" sheetId="9" r:id="rId12"/>
+    <sheet name="August" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="519">
   <si>
     <t>NAME OF EVENTS</t>
   </si>
@@ -718,12 +719,958 @@
   <si>
     <t>Ps. 25:4-5, 8-9, 10-14</t>
   </si>
+  <si>
+    <t>Ps 126:1-2a, 2b-3, 4-5, 6</t>
+  </si>
+  <si>
+    <t>Isa 12:2-3, 4bcd, 5-6</t>
+  </si>
+  <si>
+    <t>Ps 80:2-3, 15-16, 18-19</t>
+  </si>
+  <si>
+    <t>1 Thess 3:12-4:2</t>
+  </si>
+  <si>
+    <t>Phil 1:4-6, 8-11</t>
+  </si>
+  <si>
+    <t>Phil 4:47</t>
+  </si>
+  <si>
+    <t>Heb 10:5-10</t>
+  </si>
+  <si>
+    <t>Ps 85:8</t>
+  </si>
+  <si>
+    <t>Luke 3:4-6</t>
+  </si>
+  <si>
+    <t>Isa 61:1 (cited in lk 4:18)</t>
+  </si>
+  <si>
+    <t>Luke 1:38</t>
+  </si>
+  <si>
+    <t>Luke 21:25-28, 34-36</t>
+  </si>
+  <si>
+    <t>Luke 3:1-6</t>
+  </si>
+  <si>
+    <t>Luke 3:10-18</t>
+  </si>
+  <si>
+    <t>Luke 1:39-45</t>
+  </si>
+  <si>
+    <t>Isa 2:1-5</t>
+  </si>
+  <si>
+    <t>Isa 11:1-10</t>
+  </si>
+  <si>
+    <t>Isa 7:10-14</t>
+  </si>
+  <si>
+    <t>Isa 35:1-6a, 10</t>
+  </si>
+  <si>
+    <t>Isa 63:16b-17, 19b; 64:2-7</t>
+  </si>
+  <si>
+    <t>Isa 10:1-5, 9-11</t>
+  </si>
+  <si>
+    <t>Isa 61:1-2a, 10-11</t>
+  </si>
+  <si>
+    <t>2 Sam 7:1-5, 8b-12, 14a, 16</t>
+  </si>
+  <si>
+    <t>Ps 122:1-2, 3-4a, 4b-5, 6-7, 8-9</t>
+  </si>
+  <si>
+    <t>Ps 72:1-2, 7-8, 12-13, 17</t>
+  </si>
+  <si>
+    <t>Ps 146:6c-7, 8-9a, 9b-10</t>
+  </si>
+  <si>
+    <t>Ps 24:1-2, 3-4, 5-6</t>
+  </si>
+  <si>
+    <t>Rom 13:11-14</t>
+  </si>
+  <si>
+    <t>Rom 15:4-9</t>
+  </si>
+  <si>
+    <t>Jas 5:7-10</t>
+  </si>
+  <si>
+    <t>Rom 1:1-7</t>
+  </si>
+  <si>
+    <t>Isa 61:1 (cited in Lk 4:18)</t>
+  </si>
+  <si>
+    <t>Matt 1:23</t>
+  </si>
+  <si>
+    <t>Matt 24:37-44</t>
+  </si>
+  <si>
+    <t>Matt 3:1-12</t>
+  </si>
+  <si>
+    <t>Matt 11:2-11</t>
+  </si>
+  <si>
+    <t>Matt 1:18-24</t>
+  </si>
+  <si>
+    <t>Ps 85:9ab-10, 11-12, 13-14</t>
+  </si>
+  <si>
+    <t>Luke 1:46-48, 49-50, 53-54</t>
+  </si>
+  <si>
+    <t>Ps 89:2-3, 4-5, 27-29</t>
+  </si>
+  <si>
+    <t>1 Cor 1:3-9</t>
+  </si>
+  <si>
+    <t>2 Pet 3:8-14</t>
+  </si>
+  <si>
+    <t>1 Thess 5:16-24</t>
+  </si>
+  <si>
+    <t>Rom 16:25-27</t>
+  </si>
+  <si>
+    <t>Like 1:38</t>
+  </si>
+  <si>
+    <t>Mark 13:33-37</t>
+  </si>
+  <si>
+    <t>Mark 1:1-8</t>
+  </si>
+  <si>
+    <t>John 1:6-8, 19-28</t>
+  </si>
+  <si>
+    <t>Luke 1:26-38</t>
+  </si>
+  <si>
+    <t>LENT</t>
+  </si>
+  <si>
+    <t>1st Sunday of Lent</t>
+  </si>
+  <si>
+    <t>2nd Sunday of Lent</t>
+  </si>
+  <si>
+    <t>3rd Sunday of Lent</t>
+  </si>
+  <si>
+    <t>5th Sunday of Lent</t>
+  </si>
+  <si>
+    <t>4th Sunday of Lent</t>
+  </si>
+  <si>
+    <t>The full is always set at the 14th day of the lunar month (the lunar month begins with the new moon); date of passover</t>
+  </si>
+  <si>
+    <t>EASTER SUNDAY</t>
+  </si>
+  <si>
+    <t>ASH WEDNESDAY</t>
+  </si>
+  <si>
+    <t>First day of the Lent</t>
+  </si>
+  <si>
+    <t>46 days before Easter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The period od prayer and fasting </t>
+  </si>
+  <si>
+    <t>Gen 2:7-9</t>
+  </si>
+  <si>
+    <t>Gen 12:1-4a</t>
+  </si>
+  <si>
+    <t>Exod 17:3-7</t>
+  </si>
+  <si>
+    <t>1 Sam 16:1b, 6-7, 10-13a</t>
+  </si>
+  <si>
+    <t>Ezek 37:12-14</t>
+  </si>
+  <si>
+    <t>Ps 51:3-4, 5-6, 12-13, 14-17</t>
+  </si>
+  <si>
+    <t>Ps 33:4-5, 18-19, 20-22</t>
+  </si>
+  <si>
+    <t>Ps 95:1-2, 6-7b, 7c-9</t>
+  </si>
+  <si>
+    <t>Ps 23:1-3a, 3b-4, 5,6</t>
+  </si>
+  <si>
+    <t>Ps 130:1-2, 3-4, 5-6, 7-8</t>
+  </si>
+  <si>
+    <t>Rom 8:8-11</t>
+  </si>
+  <si>
+    <t>Eph 5:8-14</t>
+  </si>
+  <si>
+    <t>Rom 5:12-19, or 5:12, 17-19</t>
+  </si>
+  <si>
+    <t>2 Tim 1:8b-10</t>
+  </si>
+  <si>
+    <t>Rom 5:1-2, 5-8</t>
+  </si>
+  <si>
+    <t>Matt 4:4b</t>
+  </si>
+  <si>
+    <t>Matt 17:5</t>
+  </si>
+  <si>
+    <t>John 4:42+15</t>
+  </si>
+  <si>
+    <t>John 8:12</t>
+  </si>
+  <si>
+    <t>John 11:25a + 26</t>
+  </si>
+  <si>
+    <t>Math 4:1-11</t>
+  </si>
+  <si>
+    <t>Math 17:1-9</t>
+  </si>
+  <si>
+    <t>John 4:5-42, or 4:4-15, 19b-26, 39a, 40-42</t>
+  </si>
+  <si>
+    <t>John 9:1-41, or 9:1, 6-9, 13-17, 34-38</t>
+  </si>
+  <si>
+    <t>John 11:1-45, or11:3-7, 17, 20-27, 33b-45</t>
+  </si>
+  <si>
+    <t>Gen 9:8-15</t>
+  </si>
+  <si>
+    <t>Gen 22:1-2, 9a, 10-13, 15-18</t>
+  </si>
+  <si>
+    <t>Exod 20:1-17, or 20:1-3, 7-8, 12-17</t>
+  </si>
+  <si>
+    <t>2 Chr 36:14-16, 19-23</t>
+  </si>
+  <si>
+    <t>Jer 31:31-34</t>
+  </si>
+  <si>
+    <t>Ps 25:4-5, 6-7, 8-9</t>
+  </si>
+  <si>
+    <t>Ps 116:10-15, 16-17, 18-19</t>
+  </si>
+  <si>
+    <t>Ps 19:8,9,10,11</t>
+  </si>
+  <si>
+    <t>Ps 137:1-2, 3, 4-5, 6</t>
+  </si>
+  <si>
+    <t>Ps 51:3-4, 12-13, 14-15</t>
+  </si>
+  <si>
+    <t>1 Pet 3:18-22</t>
+  </si>
+  <si>
+    <t>Rom 8:31b-34</t>
+  </si>
+  <si>
+    <t>1 Cor 1:22-25</t>
+  </si>
+  <si>
+    <t>Epg 2:4-10</t>
+  </si>
+  <si>
+    <t>Heb 5:7-9</t>
+  </si>
+  <si>
+    <t>John 3:16</t>
+  </si>
+  <si>
+    <t>John 12:26</t>
+  </si>
+  <si>
+    <t>Mark 1:12-15</t>
+  </si>
+  <si>
+    <t>Mark 9:2-10</t>
+  </si>
+  <si>
+    <t>John 2:13-25</t>
+  </si>
+  <si>
+    <t>John 3:14-21</t>
+  </si>
+  <si>
+    <t>John 12:20-33</t>
+  </si>
+  <si>
+    <t>Deut 26:4-10</t>
+  </si>
+  <si>
+    <t>Gen 15:5-12, 17-18</t>
+  </si>
+  <si>
+    <t>Exod 3:1-8a, 13-15</t>
+  </si>
+  <si>
+    <t>Josh 5:9a, 10-12</t>
+  </si>
+  <si>
+    <t>Isa 43:16-21</t>
+  </si>
+  <si>
+    <t>Ps 91:1-2. 10-11, 12-13, 14-15</t>
+  </si>
+  <si>
+    <t>Ps 27:1, 7-8a, 8b-9, 13-14</t>
+  </si>
+  <si>
+    <t>Ps 103:1-2, 3-4, 6-7, 8-11</t>
+  </si>
+  <si>
+    <t>Ps 34:2-3, 4-5, 6-7</t>
+  </si>
+  <si>
+    <t>Rom 10:8-13</t>
+  </si>
+  <si>
+    <t>Phil 3:17-4:1, or 3:20 - 4:1</t>
+  </si>
+  <si>
+    <t>1 Cor 10:1-6, 10-12</t>
+  </si>
+  <si>
+    <t>2 Cor 5:17-21</t>
+  </si>
+  <si>
+    <t>Phil 3:8-14</t>
+  </si>
+  <si>
+    <t>Matt 4:17</t>
+  </si>
+  <si>
+    <t>Luke 15:18</t>
+  </si>
+  <si>
+    <t>Joel 2:12-13</t>
+  </si>
+  <si>
+    <t>Luke 4:1-13</t>
+  </si>
+  <si>
+    <t>Luke 9:28b-36</t>
+  </si>
+  <si>
+    <t>Luke 13:1-9</t>
+  </si>
+  <si>
+    <t>Luke 15:1-3, 11-32</t>
+  </si>
+  <si>
+    <t>John 8:1-11</t>
+  </si>
+  <si>
+    <t>PALM SUNDAY</t>
+  </si>
+  <si>
+    <t>At the Procession with Palms</t>
+  </si>
+  <si>
+    <t>At the Mass</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Matt 21:1-11</t>
+  </si>
+  <si>
+    <t>Mark 11:1-10 or John 12-12-6</t>
+  </si>
+  <si>
+    <t>Luke 19:28-40</t>
+  </si>
+  <si>
+    <t>Isa 50:4-7</t>
+  </si>
+  <si>
+    <t>Ps 22:8-9, 17-18, 19-20, 23-24</t>
+  </si>
+  <si>
+    <t>Phil 2:6-11</t>
+  </si>
+  <si>
+    <t>Phil 2:8--9</t>
+  </si>
+  <si>
+    <t>Matt 26:14-27:66, or 27:11-54</t>
+  </si>
+  <si>
+    <t>Mark 14:1 - 15:47 or 15:1-39</t>
+  </si>
+  <si>
+    <t>Luke 22:14-23:56 or 23:1-49</t>
+  </si>
+  <si>
+    <t>HOLY THURSDAY</t>
+  </si>
+  <si>
+    <t>Exod 12:1-8, 11-14</t>
+  </si>
+  <si>
+    <t>Ps 116:12-13, 15-16, 17-18</t>
+  </si>
+  <si>
+    <t>1 Cor 11:23-26</t>
+  </si>
+  <si>
+    <t>John 13:34</t>
+  </si>
+  <si>
+    <t>John 12:1-15</t>
+  </si>
+  <si>
+    <t>GOOD FRIDAY</t>
+  </si>
+  <si>
+    <t>Evening Mass of the Lord's Supper</t>
+  </si>
+  <si>
+    <t>of the Lord's Passion</t>
+  </si>
+  <si>
+    <t>Isa 52:13 - 53:12</t>
+  </si>
+  <si>
+    <t>Ps 31:2-6, 12-13, 15-16, 17-25</t>
+  </si>
+  <si>
+    <t>Heb 4:14-16, 5:7-9</t>
+  </si>
+  <si>
+    <t>Phil 2:8-9</t>
+  </si>
+  <si>
+    <t>John 18:1-19:42</t>
+  </si>
+  <si>
+    <t>The Resurrection of the Lord
+The Easter Vigil in the Holy Night</t>
+  </si>
+  <si>
+    <t>Use at least 3 or up to seven readings from the OT, but always include #3:
+1. Gen 1:1-2:2 or 1, 26-31a
+2. Gen 22:1-18 or 1-2, 9a, 10-13, 15-18
+3. Exod 14:15-15:1
+4. Isa 54:5-14
+5. Isa 55:1-11
+6. Bar 3:9-15, 32-4:4
+7. Ezek 36:16-17a, 18-28</t>
+  </si>
+  <si>
+    <t>Responses after each OT Reading:
+1) Ps 104:1-2, 5-6, 10+12, 13-14, 24+35 
+   or Ps 33:4-5, 6-7, 12-13, 20-22 
+2) Ps 16:5+8, 9-10, 11
+3) Exod 15:1-2, 3-4, 5-6, 17-18
+4) Ps 30:2+4, 5-6, 11-12a+13b
+5) Isa 12:2-3, 4bcd, 5-6
+6) Ps 19:8, 9, 10, 11
+7) Ps 42:3, 5; 43:3, 4
+   or 51:12-13, 14-15, 18-19</t>
+  </si>
+  <si>
+    <t>NT Reading:
+Rom 6:3-11
+Response after the Epistle:
+Psalm 118:1-2, 16-17, 22-23
+[refrain: triple "Alleluia"]</t>
+  </si>
+  <si>
+    <t>No extra verse before the gospel</t>
+  </si>
+  <si>
+    <t>Matt 28:1-10</t>
+  </si>
+  <si>
+    <t>Mark 16:17</t>
+  </si>
+  <si>
+    <t>Luke 24:1-12</t>
+  </si>
+  <si>
+    <t>The Resurrection of the Lord
+The Mass of Easter Day</t>
+  </si>
+  <si>
+    <t>Acts 10:34a, 37-43</t>
+  </si>
+  <si>
+    <t>Ps 118:1-2, 16-17, 22-23</t>
+  </si>
+  <si>
+    <t>Col 3:1-4, or 1 Cor 5:6b-8</t>
+  </si>
+  <si>
+    <t>1 Cor 5:7b-8a</t>
+  </si>
+  <si>
+    <t>John 20:1-9 or Luke 24:13-35 (for afternoon masses)</t>
+  </si>
+  <si>
+    <t>2nd Sunday of Easter</t>
+  </si>
+  <si>
+    <t>3rd Sunday of Easter</t>
+  </si>
+  <si>
+    <t>4th Sunday of Easter</t>
+  </si>
+  <si>
+    <t>5th Sunday of Easter</t>
+  </si>
+  <si>
+    <t>6th Sunday of Easter</t>
+  </si>
+  <si>
+    <t>Ascension of the Lord</t>
+  </si>
+  <si>
+    <t>7th Sunday of Easter</t>
+  </si>
+  <si>
+    <t>Acts 2:42-47</t>
+  </si>
+  <si>
+    <t>Acts 2:14, 22-33</t>
+  </si>
+  <si>
+    <t>Acts 2:14a, 36-41</t>
+  </si>
+  <si>
+    <t>Acts 6:1-7</t>
+  </si>
+  <si>
+    <t>Acts 8:5-8, 14-17</t>
+  </si>
+  <si>
+    <t>Acts 1:1-11</t>
+  </si>
+  <si>
+    <t>Acts 1:12-14</t>
+  </si>
+  <si>
+    <t>Ps 118:2-4, 13-15, 22-24</t>
+  </si>
+  <si>
+    <t>Ps 16:1-2a+5, 7-8, 9, 10, 11</t>
+  </si>
+  <si>
+    <t>Ps 23:1-3a, 3b-4, 5, 6</t>
+  </si>
+  <si>
+    <t>Ps 33:1-2, 4-5, 18-19</t>
+  </si>
+  <si>
+    <t>Ps 66:1-3, 4-5, 6-7, 16+20</t>
+  </si>
+  <si>
+    <t>Ps 47:2-3, 6-7, 8-9</t>
+  </si>
+  <si>
+    <t>Ps 27:1, 4, 7-8</t>
+  </si>
+  <si>
+    <t>1 Pet 1:3-9</t>
+  </si>
+  <si>
+    <t>1 Pet 1:17-21</t>
+  </si>
+  <si>
+    <t>1 Pet 2:20b-25</t>
+  </si>
+  <si>
+    <t>1 Pet 2:4-9</t>
+  </si>
+  <si>
+    <t>1 Pet 3:15-18</t>
+  </si>
+  <si>
+    <t>Eph 1:17-23</t>
+  </si>
+  <si>
+    <t>1 Pet 4:13-16</t>
+  </si>
+  <si>
+    <t>John 20:29</t>
+  </si>
+  <si>
+    <t>Luke 24:32</t>
+  </si>
+  <si>
+    <t>John 10:14</t>
+  </si>
+  <si>
+    <t>John 14:6</t>
+  </si>
+  <si>
+    <t>John 14:23</t>
+  </si>
+  <si>
+    <t>Matt 28:19a+20b</t>
+  </si>
+  <si>
+    <t>John 14:18</t>
+  </si>
+  <si>
+    <t>John 20:19-31</t>
+  </si>
+  <si>
+    <t>Luke 24:13-35</t>
+  </si>
+  <si>
+    <t>John 10:1-10</t>
+  </si>
+  <si>
+    <t>John 14:1-12</t>
+  </si>
+  <si>
+    <t>John 14:15-21</t>
+  </si>
+  <si>
+    <t>Matt 28:16-20</t>
+  </si>
+  <si>
+    <t>John 17:1-11a</t>
+  </si>
+  <si>
+    <t>Acts 4:32-35</t>
+  </si>
+  <si>
+    <t>Acts 3:13-15, 17-19</t>
+  </si>
+  <si>
+    <t>Acts 4:8-12</t>
+  </si>
+  <si>
+    <t>Acts 9:26-31</t>
+  </si>
+  <si>
+    <t>Acts 10:25-26, 34-35, 44-48</t>
+  </si>
+  <si>
+    <t>Acts 1:15-17, 20a, 20c-26</t>
+  </si>
+  <si>
+    <t>Ps 4:2, 4, 7-8, 9</t>
+  </si>
+  <si>
+    <t>Ps 118:1+8-9, 21-23, 26+21+29</t>
+  </si>
+  <si>
+    <t>Ps 22:26-27, 28+30, 31-32</t>
+  </si>
+  <si>
+    <t>Ps 98:1, 2-3a, 3b-4</t>
+  </si>
+  <si>
+    <t>Ps 103:1-2, 11-12, 19-20</t>
+  </si>
+  <si>
+    <t>1 Johm 5:1-6</t>
+  </si>
+  <si>
+    <t>1 John 2:1-5a</t>
+  </si>
+  <si>
+    <t>1 John 3:1-2</t>
+  </si>
+  <si>
+    <t>1 John 3:18-24</t>
+  </si>
+  <si>
+    <t>1 John 4:7-10</t>
+  </si>
+  <si>
+    <t>Eph 4:1-13 or 4:1-7, 11-13</t>
+  </si>
+  <si>
+    <t>1 John 4:11-16</t>
+  </si>
+  <si>
+    <t>John 20-29</t>
+  </si>
+  <si>
+    <t>John 16:4a+5b</t>
+  </si>
+  <si>
+    <t>Luke 24:35-48</t>
+  </si>
+  <si>
+    <t>John 10:11-18</t>
+  </si>
+  <si>
+    <t>John 15:1-8</t>
+  </si>
+  <si>
+    <t>John 15:9-17</t>
+  </si>
+  <si>
+    <t>Mark 16:15-20</t>
+  </si>
+  <si>
+    <t>John 17:11b-19</t>
+  </si>
+  <si>
+    <t>Acts 5:12-16</t>
+  </si>
+  <si>
+    <t>Acts 5:27-32, 40b-41</t>
+  </si>
+  <si>
+    <t>Acts 13:14, 43-52</t>
+  </si>
+  <si>
+    <t>Acts 14:21-27</t>
+  </si>
+  <si>
+    <t>Acts 15:1-2, 22-29</t>
+  </si>
+  <si>
+    <t>Acts 7:55-60</t>
+  </si>
+  <si>
+    <t>Ps 30:2+4, 5-6, 11-12A+13b</t>
+  </si>
+  <si>
+    <t>Ps 100:1-2, 3, 5</t>
+  </si>
+  <si>
+    <t>Ps 145:8-9, 10-11, 12-13</t>
+  </si>
+  <si>
+    <t>Ps 67:2-3, 5, 6+8</t>
+  </si>
+  <si>
+    <t>Ps 97:1-2, 6-7, 9</t>
+  </si>
+  <si>
+    <t>Rev 1:9-11a, 12-13, 17-19</t>
+  </si>
+  <si>
+    <t>Rev 5:11-14</t>
+  </si>
+  <si>
+    <t>Rev 7:9, 14b-17</t>
+  </si>
+  <si>
+    <t>Rev 21:1-5a</t>
+  </si>
+  <si>
+    <t>Rev 21:10-14, 22-23</t>
+  </si>
+  <si>
+    <t>Heb 9:24-28, 10:19-23</t>
+  </si>
+  <si>
+    <t>Rev 22:12-14, 16-17, 20</t>
+  </si>
+  <si>
+    <t>no biblical reference</t>
+  </si>
+  <si>
+    <t>John 21:1-19, or 21:1-14</t>
+  </si>
+  <si>
+    <t>John 10:27-30</t>
+  </si>
+  <si>
+    <t>John 13:31-33a, 34-35</t>
+  </si>
+  <si>
+    <t>John 14:23-29</t>
+  </si>
+  <si>
+    <t>Luke 24:46-53</t>
+  </si>
+  <si>
+    <t>John 17:20-26</t>
+  </si>
+  <si>
+    <t>PENTECOST SUNDAY</t>
+  </si>
+  <si>
+    <t>At the Vigil Mass</t>
+  </si>
+  <si>
+    <t>Mass during the Day</t>
+  </si>
+  <si>
+    <t>Gen 11:1-9 or Exod 19:3-8a, 16-20b or Ezek 37:1-14 or Joel 3:1-5</t>
+  </si>
+  <si>
+    <t>Ps 104:1-2, 24+35, 27-28, 29b-30</t>
+  </si>
+  <si>
+    <t>Rom 8:22-27</t>
+  </si>
+  <si>
+    <t>John 7:37-39</t>
+  </si>
+  <si>
+    <t>Acts 2:1-11</t>
+  </si>
+  <si>
+    <t>Ps 104:1+24, 29-30, 31+34</t>
+  </si>
+  <si>
+    <t>1 Cor 12:3b-7, 12-13</t>
+  </si>
+  <si>
+    <t>John 20:19-23</t>
+  </si>
+  <si>
+    <t>opt. Gal 5:16-25</t>
+  </si>
+  <si>
+    <t>opt. John 15:26-27, 16:12-15</t>
+  </si>
+  <si>
+    <t>opt. John 14:15-16, 23b-26</t>
+  </si>
+  <si>
+    <t>opt. Rom 8:8-17</t>
+  </si>
+  <si>
+    <t>50th day after Easter</t>
+  </si>
+  <si>
+    <t>The beginning of Holy Week, the final week of Lent</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Monday</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Tuesday</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Wednesday</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Thursday</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Friday</t>
+  </si>
+  <si>
+    <t>Octave of Easter - Saturday</t>
+  </si>
+  <si>
+    <t>Acts 2:14, 22-32</t>
+  </si>
+  <si>
+    <t>ALLELUIA</t>
+  </si>
+  <si>
+    <t>Acts 2:36-41</t>
+  </si>
+  <si>
+    <t>Acts 3:1-10</t>
+  </si>
+  <si>
+    <t>Acts 3:11-26</t>
+  </si>
+  <si>
+    <t>Acts 4:1-12</t>
+  </si>
+  <si>
+    <t>Acts 4:13-21</t>
+  </si>
+  <si>
+    <t>Ps 16:1-2, 5, 7-11</t>
+  </si>
+  <si>
+    <t>Ps 33:4-5, 18-20, 22</t>
+  </si>
+  <si>
+    <t>Ps 105:1-4, 6-9</t>
+  </si>
+  <si>
+    <t>Ps 8:2, 5-9</t>
+  </si>
+  <si>
+    <t>Ps 118:1-2, 4, 22-27</t>
+  </si>
+  <si>
+    <t>Ps 118:1, 14-21</t>
+  </si>
+  <si>
+    <t>Ps 118:24</t>
+  </si>
+  <si>
+    <t>Matt 28:8-15 (Jesus appears to the women returning from the tomb)</t>
+  </si>
+  <si>
+    <t>John 20:11-18 (Jesus appears to Mary Magdalene)</t>
+  </si>
+  <si>
+    <t>Luke 24:13-35 (Jesus appears to two disciples going to Emmaus)</t>
+  </si>
+  <si>
+    <t>Luke 24:35-48 (They return to Jerusalem, where Jesus again appears)</t>
+  </si>
+  <si>
+    <t>John 21:1-14 (Jesus appears to the disciples at Lake Tiberius)</t>
+  </si>
+  <si>
+    <t>Mark 16:9-15 (summary of various appearance stories)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,6 +1731,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -823,7 +1778,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -867,17 +1822,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -920,11 +1864,512 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -994,61 +2439,238 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1333,8 +2955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1495,6 +3117,47 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1507,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1519,7 +3182,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1537,8 +3200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49:D49"/>
+    <sheetView topLeftCell="A9" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,9 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2203,202 +3864,1700 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="28" customWidth="1"/>
-    <col min="2" max="2" width="27.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="17" style="29" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12" style="29" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="29" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" style="29" customWidth="1"/>
-    <col min="9" max="9" width="17" style="29" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="29" customWidth="1"/>
-    <col min="11" max="11" width="12" style="29" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" style="29" customWidth="1"/>
-    <col min="13" max="13" width="13.7109375" style="29" customWidth="1"/>
-    <col min="14" max="14" width="17" style="29" customWidth="1"/>
-    <col min="15" max="15" width="13.5703125" style="29" customWidth="1"/>
-    <col min="16" max="16" width="12" style="29" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" style="29" customWidth="1"/>
-    <col min="18" max="18" width="27.5703125" style="29" customWidth="1"/>
-    <col min="19" max="19" width="27.140625" style="29" customWidth="1"/>
-    <col min="20" max="20" width="18.28515625" style="29" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="28"/>
+    <col min="1" max="1" width="27.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="23" customWidth="1"/>
+    <col min="4" max="5" width="27.42578125" style="23" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="23" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="27" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C2" s="103" t="s">
+        <v>499</v>
+      </c>
+      <c r="D2" s="103" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="C3" s="103" t="s">
+        <v>501</v>
+      </c>
+      <c r="D3" s="103" t="s">
+        <v>507</v>
+      </c>
+      <c r="E3" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="F3" s="104" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C4" s="103" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" s="103" t="s">
+        <v>508</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="F4" s="104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C5" s="103" t="s">
+        <v>503</v>
+      </c>
+      <c r="D5" s="103" t="s">
+        <v>509</v>
+      </c>
+      <c r="E5" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="F5" s="104" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C6" s="103" t="s">
+        <v>504</v>
+      </c>
+      <c r="D6" s="103" t="s">
+        <v>510</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="F6" s="104" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>505</v>
+      </c>
+      <c r="D7" s="103" t="s">
+        <v>511</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>512</v>
+      </c>
+      <c r="F7" s="104" t="s">
+        <v>518</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:U28"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="27.140625" style="40" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="74" customWidth="1"/>
+    <col min="4" max="4" width="21.5703125" style="74" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="75" customWidth="1"/>
+    <col min="8" max="8" width="30.5703125" style="74" customWidth="1"/>
+    <col min="9" max="9" width="31" style="30" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" style="30" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" style="30" customWidth="1"/>
+    <col min="12" max="12" width="19.28515625" style="75" customWidth="1"/>
+    <col min="13" max="13" width="28.28515625" style="74" customWidth="1"/>
+    <col min="14" max="14" width="27.7109375" style="30" customWidth="1"/>
+    <col min="15" max="15" width="25.5703125" style="30" customWidth="1"/>
+    <col min="16" max="16" width="19.42578125" style="30" customWidth="1"/>
+    <col min="17" max="17" width="18.85546875" style="75" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" style="40" customWidth="1"/>
+    <col min="19" max="19" width="27.140625" style="40" customWidth="1"/>
+    <col min="20" max="20" width="24.85546875" style="64" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" style="36"/>
+    <col min="22" max="16384" width="9.140625" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="33" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="43" t="s">
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="42" t="s">
         <v>204</v>
       </c>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="43" t="s">
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="45"/>
-      <c r="R1" s="39" t="s">
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="39" t="s">
+      <c r="T1" s="61" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="27" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="27" t="s">
+      <c r="U1" s="35"/>
+    </row>
+    <row r="2" spans="1:21" s="45" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="44" t="s">
         <v>202</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="J2" s="27" t="s">
+      <c r="J2" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="K2" s="27" t="s">
+      <c r="K2" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="L2" s="27" t="s">
+      <c r="L2" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="M2" s="27" t="s">
+      <c r="M2" s="44" t="s">
         <v>198</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="45" t="s">
         <v>202</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="45" t="s">
         <v>201</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-    </row>
-    <row r="3" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:21" s="29" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>191</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="41" t="s">
         <v>193</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="71" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="71" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="72" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" s="73" t="s">
+        <v>244</v>
+      </c>
+      <c r="H3" s="71" t="s">
+        <v>230</v>
+      </c>
+      <c r="I3" s="72" t="s">
+        <v>213</v>
+      </c>
+      <c r="J3" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="K3" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="L3" s="73" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="71" t="s">
         <v>206</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="N3" s="72" t="s">
         <v>210</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="O3" s="72" t="s">
+        <v>214</v>
+      </c>
+      <c r="P3" s="72" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q3" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="R3" s="41"/>
+      <c r="S3" s="56" t="s">
         <v>192</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="58" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="35"/>
-      <c r="B4" s="29" t="s">
+      <c r="U3" s="37"/>
+    </row>
+    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="90"/>
+      <c r="B4" s="40" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="D4" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="G4" s="75" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="74" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>248</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>252</v>
+      </c>
+      <c r="K4" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="L4" s="75" t="s">
+        <v>257</v>
+      </c>
+      <c r="M4" s="74" t="s">
         <v>207</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="29" t="s">
+      <c r="N4" s="30" t="s">
+        <v>211</v>
+      </c>
+      <c r="O4" s="30" t="s">
+        <v>215</v>
+      </c>
+      <c r="P4" s="30" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q4" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="S4" s="56"/>
+      <c r="T4" s="58"/>
+    </row>
+    <row r="5" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="90"/>
+      <c r="B5" s="40" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>240</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="G5" s="75" t="s">
+        <v>246</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>249</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>258</v>
+      </c>
+      <c r="M5" s="74" t="s">
         <v>208</v>
       </c>
-      <c r="S5" s="31"/>
-      <c r="T5" s="31"/>
-    </row>
-    <row r="6" spans="1:20" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="36"/>
-      <c r="B6" s="29" t="s">
+      <c r="N5" s="30" t="s">
+        <v>212</v>
+      </c>
+      <c r="O5" s="30" t="s">
+        <v>216</v>
+      </c>
+      <c r="P5" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q5" s="75" t="s">
+        <v>224</v>
+      </c>
+      <c r="S5" s="56"/>
+      <c r="T5" s="58"/>
+    </row>
+    <row r="6" spans="1:21" s="49" customFormat="1" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="91"/>
+      <c r="B6" s="47" t="s">
         <v>196</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="76" t="s">
+        <v>228</v>
+      </c>
+      <c r="D6" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="E6" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="F6" s="77" t="s">
+        <v>243</v>
+      </c>
+      <c r="G6" s="78" t="s">
+        <v>247</v>
+      </c>
+      <c r="H6" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="I6" s="77" t="s">
+        <v>250</v>
+      </c>
+      <c r="J6" s="77" t="s">
+        <v>254</v>
+      </c>
+      <c r="K6" s="77" t="s">
+        <v>255</v>
+      </c>
+      <c r="L6" s="78" t="s">
+        <v>259</v>
+      </c>
+      <c r="M6" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="31"/>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="S7" s="37"/>
-      <c r="T7" s="38"/>
+      <c r="N6" s="79" t="s">
+        <v>213</v>
+      </c>
+      <c r="O6" s="77" t="s">
+        <v>217</v>
+      </c>
+      <c r="P6" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q6" s="78" t="s">
+        <v>225</v>
+      </c>
+      <c r="R6" s="47"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="48"/>
+    </row>
+    <row r="7" spans="1:21" s="29" customFormat="1" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="92" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>261</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="71" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>284</v>
+      </c>
+      <c r="F7" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="G7" s="73" t="s">
+        <v>292</v>
+      </c>
+      <c r="H7" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="I7" s="72" t="s">
+        <v>302</v>
+      </c>
+      <c r="J7" s="72" t="s">
+        <v>307</v>
+      </c>
+      <c r="K7" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="L7" s="73" t="s">
+        <v>314</v>
+      </c>
+      <c r="M7" s="71" t="s">
+        <v>319</v>
+      </c>
+      <c r="N7" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="O7" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="P7" s="72" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q7" s="73" t="s">
+        <v>336</v>
+      </c>
+      <c r="R7" s="100"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65" t="s">
+        <v>271</v>
+      </c>
+      <c r="U7" s="37"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="90"/>
+      <c r="B8" s="40" t="s">
+        <v>262</v>
+      </c>
+      <c r="C8" s="74" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="H8" s="74" t="s">
+        <v>298</v>
+      </c>
+      <c r="I8" s="30" t="s">
+        <v>303</v>
+      </c>
+      <c r="J8" s="30" t="s">
+        <v>308</v>
+      </c>
+      <c r="K8" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="L8" s="75" t="s">
+        <v>315</v>
+      </c>
+      <c r="M8" s="74" t="s">
+        <v>320</v>
+      </c>
+      <c r="N8" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q8" s="75" t="s">
+        <v>337</v>
+      </c>
+      <c r="R8" s="101"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+    </row>
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="90"/>
+      <c r="B9" s="40" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="74" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="74" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="74" t="s">
+        <v>299</v>
+      </c>
+      <c r="I9" s="30" t="s">
+        <v>304</v>
+      </c>
+      <c r="J9" s="30" t="s">
+        <v>309</v>
+      </c>
+      <c r="K9" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L9" s="75" t="s">
+        <v>316</v>
+      </c>
+      <c r="M9" s="74" t="s">
+        <v>321</v>
+      </c>
+      <c r="N9" s="30" t="s">
+        <v>326</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>330</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q9" s="75" t="s">
+        <v>338</v>
+      </c>
+      <c r="R9" s="101"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+    </row>
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="90"/>
+      <c r="B10" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>275</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>280</v>
+      </c>
+      <c r="E10" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>300</v>
+      </c>
+      <c r="I10" s="30" t="s">
+        <v>305</v>
+      </c>
+      <c r="J10" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="K10" s="30" t="s">
+        <v>312</v>
+      </c>
+      <c r="L10" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="M10" s="74" t="s">
+        <v>322</v>
+      </c>
+      <c r="N10" s="30" t="s">
+        <v>327</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>331</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q10" s="75" t="s">
+        <v>339</v>
+      </c>
+      <c r="R10" s="101"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+    </row>
+    <row r="11" spans="1:21" s="49" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="91"/>
+      <c r="B11" s="47" t="s">
+        <v>264</v>
+      </c>
+      <c r="C11" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="D11" s="76" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" s="77" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="77" t="s">
+        <v>291</v>
+      </c>
+      <c r="G11" s="78" t="s">
+        <v>296</v>
+      </c>
+      <c r="H11" s="76" t="s">
+        <v>301</v>
+      </c>
+      <c r="I11" s="77" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" s="77" t="s">
+        <v>311</v>
+      </c>
+      <c r="K11" s="77" t="s">
+        <v>313</v>
+      </c>
+      <c r="L11" s="78" t="s">
+        <v>318</v>
+      </c>
+      <c r="M11" s="76" t="s">
+        <v>323</v>
+      </c>
+      <c r="N11" s="77" t="s">
+        <v>211</v>
+      </c>
+      <c r="O11" s="77" t="s">
+        <v>332</v>
+      </c>
+      <c r="P11" s="77" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q11" s="78" t="s">
+        <v>340</v>
+      </c>
+      <c r="R11" s="102"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="48"/>
+    </row>
+    <row r="12" spans="1:21" s="55" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="53"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="84"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="83"/>
+      <c r="N12" s="84"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="85"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53" t="s">
+        <v>270</v>
+      </c>
+      <c r="T12" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="U12" s="54"/>
+    </row>
+    <row r="13" spans="1:21" s="70" customFormat="1" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="92" t="s">
+        <v>341</v>
+      </c>
+      <c r="B13" s="68" t="s">
+        <v>342</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="D13" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="F13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>345</v>
+      </c>
+      <c r="H13" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="I13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="J13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="K13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="L13" s="88" t="s">
+        <v>346</v>
+      </c>
+      <c r="M13" s="87" t="s">
+        <v>344</v>
+      </c>
+      <c r="N13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="O13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="P13" s="86" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>347</v>
+      </c>
+      <c r="R13" s="68"/>
+      <c r="S13" s="65" t="s">
+        <v>492</v>
+      </c>
+      <c r="T13" s="65"/>
+      <c r="U13" s="69"/>
+    </row>
+    <row r="14" spans="1:21" s="52" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="91"/>
+      <c r="B14" s="50" t="s">
+        <v>343</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>350</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="G14" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="H14" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="I14" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="J14" s="81" t="s">
+        <v>350</v>
+      </c>
+      <c r="K14" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="L14" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="M14" s="80" t="s">
+        <v>348</v>
+      </c>
+      <c r="N14" s="80" t="s">
+        <v>349</v>
+      </c>
+      <c r="O14" s="81" t="s">
+        <v>350</v>
+      </c>
+      <c r="P14" s="81" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q14" s="82" t="s">
+        <v>354</v>
+      </c>
+      <c r="R14" s="50"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="51"/>
+    </row>
+    <row r="15" spans="1:21" s="55" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="93" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>362</v>
+      </c>
+      <c r="C15" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="D15" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="E15" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="G15" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="H15" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="I15" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="J15" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="K15" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="L15" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="M15" s="83" t="s">
+        <v>356</v>
+      </c>
+      <c r="N15" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="O15" s="84" t="s">
+        <v>358</v>
+      </c>
+      <c r="P15" s="84" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q15" s="85" t="s">
+        <v>360</v>
+      </c>
+      <c r="R15" s="53"/>
+      <c r="S15" s="53"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="54"/>
+    </row>
+    <row r="16" spans="1:21" s="55" customFormat="1" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="93" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="C16" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="D16" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="E16" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="F16" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="G16" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="H16" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="I16" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="J16" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="K16" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="L16" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="M16" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="N16" s="83" t="s">
+        <v>365</v>
+      </c>
+      <c r="O16" s="84" t="s">
+        <v>366</v>
+      </c>
+      <c r="P16" s="84" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q16" s="85" t="s">
+        <v>368</v>
+      </c>
+      <c r="R16" s="53"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="62"/>
+      <c r="U16" s="54"/>
+    </row>
+    <row r="17" spans="1:21" s="70" customFormat="1" ht="255.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="C17" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="E17" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="F17" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>374</v>
+      </c>
+      <c r="H17" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="I17" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="J17" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="K17" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="L17" s="88" t="s">
+        <v>375</v>
+      </c>
+      <c r="M17" s="87" t="s">
+        <v>370</v>
+      </c>
+      <c r="N17" s="87" t="s">
+        <v>371</v>
+      </c>
+      <c r="O17" s="86" t="s">
+        <v>372</v>
+      </c>
+      <c r="P17" s="86" t="s">
+        <v>373</v>
+      </c>
+      <c r="Q17" s="88" t="s">
+        <v>376</v>
+      </c>
+      <c r="R17" s="68"/>
+      <c r="S17" s="65" t="s">
+        <v>266</v>
+      </c>
+      <c r="T17" s="65"/>
+      <c r="U17" s="69"/>
+    </row>
+    <row r="18" spans="1:21" s="49" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="90"/>
+      <c r="B18" s="47" t="s">
+        <v>377</v>
+      </c>
+      <c r="C18" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="D18" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="E18" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="F18" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="G18" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="H18" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="I18" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="J18" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="K18" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="L18" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="M18" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="N18" s="94" t="s">
+        <v>379</v>
+      </c>
+      <c r="O18" s="77" t="s">
+        <v>380</v>
+      </c>
+      <c r="P18" s="77" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q18" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="R18" s="47"/>
+      <c r="S18" s="56"/>
+      <c r="T18" s="56"/>
+      <c r="U18" s="48"/>
+    </row>
+    <row r="19" spans="1:21" s="29" customFormat="1" ht="29.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="90"/>
+      <c r="B19" s="41" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>390</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>397</v>
+      </c>
+      <c r="E19" s="72" t="s">
+        <v>404</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="G19" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="H19" s="71" t="s">
+        <v>425</v>
+      </c>
+      <c r="I19" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="J19" s="72" t="s">
+        <v>436</v>
+      </c>
+      <c r="K19" s="72" t="s">
+        <v>443</v>
+      </c>
+      <c r="L19" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="M19" s="71" t="s">
+        <v>451</v>
+      </c>
+      <c r="N19" s="72" t="s">
+        <v>397</v>
+      </c>
+      <c r="O19" s="72" t="s">
+        <v>462</v>
+      </c>
+      <c r="P19" s="72" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q19" s="73" t="s">
+        <v>418</v>
+      </c>
+      <c r="R19" s="41"/>
+      <c r="S19" s="56"/>
+      <c r="T19" s="56"/>
+      <c r="U19" s="37"/>
+    </row>
+    <row r="20" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="90"/>
+      <c r="B20" s="40" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="74" t="s">
+        <v>391</v>
+      </c>
+      <c r="D20" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="E20" s="30" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="G20" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="H20" s="74" t="s">
+        <v>426</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="J20" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="K20" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="L20" s="75" t="s">
+        <v>445</v>
+      </c>
+      <c r="M20" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="N20" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="O20" s="30" t="s">
+        <v>463</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q20" s="75" t="s">
+        <v>470</v>
+      </c>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="90"/>
+      <c r="B21" s="40" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="74" t="s">
+        <v>392</v>
+      </c>
+      <c r="D21" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="E21" s="30" t="s">
+        <v>406</v>
+      </c>
+      <c r="F21" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="G21" s="75" t="s">
+        <v>420</v>
+      </c>
+      <c r="H21" s="74" t="s">
+        <v>427</v>
+      </c>
+      <c r="I21" s="30" t="s">
+        <v>432</v>
+      </c>
+      <c r="J21" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="K21" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="L21" s="75" t="s">
+        <v>446</v>
+      </c>
+      <c r="M21" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="N21" s="30" t="s">
+        <v>458</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>464</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q21" s="75" t="s">
+        <v>471</v>
+      </c>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+    </row>
+    <row r="22" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="90"/>
+      <c r="B22" s="40" t="s">
+        <v>386</v>
+      </c>
+      <c r="C22" s="74" t="s">
+        <v>393</v>
+      </c>
+      <c r="D22" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>407</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>414</v>
+      </c>
+      <c r="G22" s="75" t="s">
+        <v>421</v>
+      </c>
+      <c r="H22" s="74" t="s">
+        <v>428</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>433</v>
+      </c>
+      <c r="J22" s="30" t="s">
+        <v>439</v>
+      </c>
+      <c r="K22" s="30" t="s">
+        <v>444</v>
+      </c>
+      <c r="L22" s="75" t="s">
+        <v>447</v>
+      </c>
+      <c r="M22" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="N22" s="30" t="s">
+        <v>459</v>
+      </c>
+      <c r="O22" s="30" t="s">
+        <v>465</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q22" s="75" t="s">
+        <v>472</v>
+      </c>
+      <c r="S22" s="56"/>
+      <c r="T22" s="56"/>
+    </row>
+    <row r="23" spans="1:21" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="90"/>
+      <c r="B23" s="95" t="s">
+        <v>387</v>
+      </c>
+      <c r="C23" s="96" t="s">
+        <v>394</v>
+      </c>
+      <c r="D23" s="96" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" s="97" t="s">
+        <v>415</v>
+      </c>
+      <c r="G23" s="98" t="s">
+        <v>422</v>
+      </c>
+      <c r="H23" s="96" t="s">
+        <v>429</v>
+      </c>
+      <c r="I23" s="97" t="s">
+        <v>434</v>
+      </c>
+      <c r="J23" s="97" t="s">
+        <v>440</v>
+      </c>
+      <c r="K23" s="97" t="s">
+        <v>415</v>
+      </c>
+      <c r="L23" s="98" t="s">
+        <v>448</v>
+      </c>
+      <c r="M23" s="96" t="s">
+        <v>455</v>
+      </c>
+      <c r="N23" s="97" t="s">
+        <v>460</v>
+      </c>
+      <c r="O23" s="97" t="s">
+        <v>466</v>
+      </c>
+      <c r="P23" s="97" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q23" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="R23" s="95"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="99"/>
+    </row>
+    <row r="24" spans="1:21" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="90"/>
+      <c r="B24" s="95" t="s">
+        <v>388</v>
+      </c>
+      <c r="C24" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="D24" s="96" t="s">
+        <v>402</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>409</v>
+      </c>
+      <c r="F24" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>423</v>
+      </c>
+      <c r="H24" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="I24" s="97" t="s">
+        <v>402</v>
+      </c>
+      <c r="J24" s="97" t="s">
+        <v>441</v>
+      </c>
+      <c r="K24" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="L24" s="98" t="s">
+        <v>449</v>
+      </c>
+      <c r="M24" s="96" t="s">
+        <v>395</v>
+      </c>
+      <c r="N24" s="97" t="s">
+        <v>402</v>
+      </c>
+      <c r="O24" s="97" t="s">
+        <v>467</v>
+      </c>
+      <c r="P24" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q24" s="98" t="s">
+        <v>474</v>
+      </c>
+      <c r="R24" s="95"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="99"/>
+    </row>
+    <row r="25" spans="1:21" s="49" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="91"/>
+      <c r="B25" s="47" t="s">
+        <v>389</v>
+      </c>
+      <c r="C25" s="76" t="s">
+        <v>396</v>
+      </c>
+      <c r="D25" s="76" t="s">
+        <v>403</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>410</v>
+      </c>
+      <c r="F25" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="G25" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="H25" s="76" t="s">
+        <v>430</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>435</v>
+      </c>
+      <c r="J25" s="77" t="s">
+        <v>442</v>
+      </c>
+      <c r="K25" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="L25" s="78" t="s">
+        <v>450</v>
+      </c>
+      <c r="M25" s="76" t="s">
+        <v>456</v>
+      </c>
+      <c r="N25" s="77" t="s">
+        <v>461</v>
+      </c>
+      <c r="O25" s="77" t="s">
+        <v>468</v>
+      </c>
+      <c r="P25" s="77" t="s">
+        <v>417</v>
+      </c>
+      <c r="Q25" s="78" t="s">
+        <v>475</v>
+      </c>
+      <c r="R25" s="47"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="48"/>
+    </row>
+    <row r="26" spans="1:21" s="29" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="92" t="s">
+        <v>476</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>477</v>
+      </c>
+      <c r="C26" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="E26" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="F26" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="G26" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="J26" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="K26" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="L26" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="M26" s="71" t="s">
+        <v>479</v>
+      </c>
+      <c r="N26" s="71" t="s">
+        <v>480</v>
+      </c>
+      <c r="O26" s="72" t="s">
+        <v>481</v>
+      </c>
+      <c r="P26" s="72" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q26" s="73" t="s">
+        <v>482</v>
+      </c>
+      <c r="R26" s="41"/>
+      <c r="S26" s="65" t="s">
+        <v>491</v>
+      </c>
+      <c r="T26" s="65"/>
+      <c r="U26" s="37"/>
+    </row>
+    <row r="27" spans="1:21" s="49" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="91"/>
+      <c r="B27" s="47" t="s">
+        <v>478</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="D27" s="76" t="s">
+        <v>484</v>
+      </c>
+      <c r="E27" s="77" t="s">
+        <v>485</v>
+      </c>
+      <c r="F27" s="77" t="s">
+        <v>469</v>
+      </c>
+      <c r="G27" s="78" t="s">
+        <v>486</v>
+      </c>
+      <c r="H27" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="I27" s="77" t="s">
+        <v>484</v>
+      </c>
+      <c r="J27" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="K27" s="77" t="s">
+        <v>469</v>
+      </c>
+      <c r="L27" s="78" t="s">
+        <v>488</v>
+      </c>
+      <c r="M27" s="76" t="s">
+        <v>483</v>
+      </c>
+      <c r="N27" s="77" t="s">
+        <v>484</v>
+      </c>
+      <c r="O27" s="77" t="s">
+        <v>490</v>
+      </c>
+      <c r="P27" s="77" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q27" s="78" t="s">
+        <v>489</v>
+      </c>
+      <c r="R27" s="47"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="48"/>
+    </row>
+    <row r="28" spans="1:21" s="29" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="72"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="72"/>
+      <c r="J28" s="72"/>
+      <c r="K28" s="72"/>
+      <c r="L28" s="73"/>
+      <c r="M28" s="71"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="72"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="R1:R2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="23">
+    <mergeCell ref="S26:S27"/>
+    <mergeCell ref="T26:T27"/>
+    <mergeCell ref="S17:S25"/>
+    <mergeCell ref="T17:T25"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="S7:S11"/>
+    <mergeCell ref="T7:T11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="T13:T14"/>
     <mergeCell ref="S3:S6"/>
     <mergeCell ref="T3:T6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="T1:T2"/>
     <mergeCell ref="S1:S2"/>
+    <mergeCell ref="R1:R2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A3:A6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E23"/>
   <sheetViews>
@@ -2707,7 +5866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -2864,7 +6023,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E16"/>
   <sheetViews>
@@ -3077,7 +6236,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
@@ -3116,45 +6275,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>